--- a/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
+++ b/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimak\source\repos\ComputationalInteligence\wyniki_wyzarzanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF5204-DDE9-4049-AB53-BD0E56C1E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5962CC3-7411-4548-A488-B8675DEB40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{01E9C1F5-D514-49A6-9A73-7E0CF90B0B32}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{01E9C1F5-D514-49A6-9A73-7E0CF90B0B32}"/>
   </bookViews>
   <sheets>
     <sheet name="48" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>Parametr</t>
   </si>
@@ -80,6 +80,27 @@
   </si>
   <si>
     <t>Czas (min)</t>
+  </si>
+  <si>
+    <t>121959.16149590288</t>
+  </si>
+  <si>
+    <t>124672.96</t>
+  </si>
+  <si>
+    <t>668.46</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>118691.65970018267</t>
+  </si>
+  <si>
+    <t>121392.12</t>
+  </si>
+  <si>
+    <t>764.28</t>
   </si>
 </sst>
 </file>
@@ -116,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,6 +146,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB33C1B-C8DE-45CF-99F3-0B6E33372E7D}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,6 +915,12 @@
         <v>4.964666666666667</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f>SUM(F2:F20)</f>
+        <v>159.44716666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -904,7 +932,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,11 +1063,10 @@
         <v>414473.55</v>
       </c>
       <c r="E6" s="2">
-        <v>33329</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>555.48333333333335</v>
+        <v>4.91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1340,6 +1367,10 @@
       <c r="C21" s="3">
         <f>MIN(C2:C20)</f>
         <v>108159.43827413701</v>
+      </c>
+      <c r="F21" s="3">
+        <f>SUM(F2:F20)</f>
+        <v>213.69716666666665</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1384,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1393,7 @@
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1456,6 +1487,7 @@
       <c r="B5">
         <v>100</v>
       </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1468,9 +1500,18 @@
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6">
+        <v>501009.32507795998</v>
+      </c>
+      <c r="D6">
+        <v>513324.78</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.5500000000000007</v>
+      </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15916666666666668</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,9 +1521,18 @@
       <c r="B7">
         <v>25</v>
       </c>
+      <c r="C7">
+        <v>456035.56485080201</v>
+      </c>
+      <c r="D7">
+        <v>498449.73</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33.31</v>
+      </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5551666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,9 +1542,18 @@
       <c r="B8">
         <v>100</v>
       </c>
+      <c r="C8">
+        <v>403005.81219748198</v>
+      </c>
+      <c r="D8">
+        <v>440714.08</v>
+      </c>
+      <c r="E8" s="4">
+        <v>133.61000000000001</v>
+      </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2268333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,9 +1563,18 @@
       <c r="B9">
         <v>1000</v>
       </c>
+      <c r="C9">
+        <v>119159.282657174</v>
+      </c>
+      <c r="D9">
+        <v>120708.45</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1454.73</v>
+      </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24.2455</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1516,9 +1584,18 @@
       <c r="B10">
         <v>0.8</v>
       </c>
+      <c r="C10">
+        <v>124340.395210181</v>
+      </c>
+      <c r="D10">
+        <v>128150.29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3335.76</v>
+      </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55.596000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,9 +1605,18 @@
       <c r="B11">
         <v>0.9</v>
       </c>
+      <c r="C11">
+        <v>122404.144194045</v>
+      </c>
+      <c r="D11">
+        <v>127014.85</v>
+      </c>
+      <c r="E11" s="4">
+        <v>901.5</v>
+      </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.025</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1540,9 +1626,18 @@
       <c r="B12">
         <v>0.95</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,9 +1647,18 @@
       <c r="B13">
         <v>0.99</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,6 +1668,7 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1576,6 +1681,7 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1588,6 +1694,7 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1600,6 +1707,7 @@
       <c r="B17">
         <v>1000</v>
       </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1612,6 +1720,7 @@
       <c r="B18">
         <v>5000</v>
       </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1624,6 +1733,7 @@
       <c r="B19">
         <v>10000</v>
       </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1636,6 +1746,7 @@
       <c r="B20">
         <v>20000</v>
       </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
+++ b/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimak\source\repos\ComputationalInteligence\wyniki_wyzarzanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5962CC3-7411-4548-A488-B8675DEB40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A83FF-564F-4E59-84AB-6AA1764071FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{01E9C1F5-D514-49A6-9A73-7E0CF90B0B32}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
   <si>
     <t>Parametr</t>
   </si>
@@ -82,25 +82,7 @@
     <t>Czas (min)</t>
   </si>
   <si>
-    <t>121959.16149590288</t>
-  </si>
-  <si>
-    <t>124672.96</t>
-  </si>
-  <si>
-    <t>668.46</t>
-  </si>
-  <si>
     <t>13.76</t>
-  </si>
-  <si>
-    <t>118691.65970018267</t>
-  </si>
-  <si>
-    <t>121392.12</t>
-  </si>
-  <si>
-    <t>764.28</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1048,7 @@
         <v>4.91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1381,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5957B5-A2D1-4BA9-A155-3ABB215DF825}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,18 +1608,18 @@
       <c r="B12">
         <v>0.95</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="C12">
+        <v>121959.16149590199</v>
+      </c>
+      <c r="D12">
+        <v>124672.96000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>668.46</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>11.141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1647,18 +1629,18 @@
       <c r="B13">
         <v>0.99</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="C13">
+        <v>118691.659700182</v>
+      </c>
+      <c r="D13">
+        <v>121392.12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>764.28</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>12.738</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1668,10 +1650,18 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="C14">
+        <v>138991.86011351101</v>
+      </c>
+      <c r="D14">
+        <v>145924.93</v>
+      </c>
+      <c r="E14" s="4">
+        <v>633.04999999999995</v>
+      </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.550833333333333</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,10 +1671,18 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="C15">
+        <v>119819.014347146</v>
+      </c>
+      <c r="D15">
+        <v>121345.37</v>
+      </c>
+      <c r="E15" s="4">
+        <v>715.21</v>
+      </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.920166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,10 +1692,18 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="C16">
+        <v>123167.692547999</v>
+      </c>
+      <c r="D16">
+        <v>128473.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>743.38</v>
+      </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.389666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1707,10 +1713,18 @@
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="C17">
+        <v>119201.233006093</v>
+      </c>
+      <c r="D17">
+        <v>120503.92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>736.32</v>
+      </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.272</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1720,10 +1734,18 @@
       <c r="B18">
         <v>5000</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="C18">
+        <v>118774.67028025399</v>
+      </c>
+      <c r="D18">
+        <v>120730.91</v>
+      </c>
+      <c r="E18" s="4">
+        <v>705.2</v>
+      </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.753333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,10 +1755,18 @@
       <c r="B19">
         <v>10000</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="C19">
+        <v>119223.720518945</v>
+      </c>
+      <c r="D19">
+        <v>120644.03</v>
+      </c>
+      <c r="E19" s="4">
+        <v>876.62</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.610333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,10 +1776,24 @@
       <c r="B20">
         <v>20000</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="C20">
+        <v>119576.912601125</v>
+      </c>
+      <c r="D20">
+        <v>121719.47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>652.88</v>
+      </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.881333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="3">
+        <f>SUM(F2:F20)</f>
+        <v>278.56283333333329</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
+++ b/wyniki_wyzarzanie/Wyniki_wyzarzanie_tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimak\source\repos\ComputationalInteligence\wyniki_wyzarzanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A83FF-564F-4E59-84AB-6AA1764071FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554C280-D0E3-4E52-AC2C-1206C02ED850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{01E9C1F5-D514-49A6-9A73-7E0CF90B0B32}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,10 +1469,18 @@
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="C5">
+        <v>118532.858643336</v>
+      </c>
+      <c r="D5">
+        <v>121139.51</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6856.91</v>
+      </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114.28183333333332</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1793,7 +1801,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F21" s="3">
         <f>SUM(F2:F20)</f>
-        <v>278.56283333333329</v>
+        <v>392.84466666666663</v>
       </c>
     </row>
   </sheetData>
